--- a/biology/Médecine/Albert_Netter/Albert_Netter.xlsx
+++ b/biology/Médecine/Albert_Netter/Albert_Netter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Netter, né le 8 juin 1910 à Paris et mort dans la même ville le 26 juin 2012 à l'âge de 102 ans[1], est un médecin français, spécialiste de gynécologie et d'endocrinologie. Il est aussi président fondateur de la Société européenne de gynécologie. Il a créé en 1972 la première banque du sperme en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Netter, né le 8 juin 1910 à Paris et mort dans la même ville le 26 juin 2012 à l'âge de 102 ans, est un médecin français, spécialiste de gynécologie et d'endocrinologie. Il est aussi président fondateur de la Société européenne de gynécologie. Il a créé en 1972 la première banque du sperme en France.
 </t>
         </is>
       </c>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-Albert Netter effectua sa scolarité au lycée Montaigne puis au lycée Louis-le-Grand avant de commencer ses études de médecine. Sa carrière débuta comme externe des Hôpitaux de Paris en 1928 puis comme interne à partir de 1930 où il fut, à seulement vingt ans, le plus jeune interne de France (Netter 1982). Il obtint la médaille d'or de l'internat en 1936 et devint docteur en médecine de la Faculté de médecine de Paris la même année. À la suite de cela il séjourna un an à l'université Columbia à New York, et devint chef de clinique à la Faculté de médecine de Paris après son retour en 1937.
-Seconde Guerre mondiale
-Il fut engagé dans l'armée par devancement d'appel en 1930-1931 et servit de nouveau de septembre 1939 à septembre 1940, puis d'août 1944 à mai 1945. C'est donc logiquement, début septembre 1939 aux premiers coups de canon de la Seconde Guerre mondiale, qu'Alice Lambert et Albert Netter se marièrent.
-Carrière
-De novembre 1945 à novembre 1946 il fut conseiller médical de la Mission française de la Santé publique aux États-Unis destinée à informer le ministre de la Santé des progrès médicaux réalisés aux États-Unis durant la période 1940-1945. En 1955 il effectua une mission à Montréal où il remplaça le professeur Roméo Boucher à l'Hôpital Saint-Luc.
-Médecin des Hôpitaux de Paris en 1947, il enseigna comme professeur au Collège de médecine des Hôpitaux de Paris à partir de 1954 et fut nommé professeur à la Faculté de médecine de Paris (à titre rétroactif) en 1964. Il fut ensuite chef de service à l'Hôpital Lariboisière, puis à l'Hôtel-Dieu, à l'Hôpital Necker où il enseigna la gynécologie et l'endocrinologie et consulta aussi à l'Hôpital Saint-Louis.
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Netter effectua sa scolarité au lycée Montaigne puis au lycée Louis-le-Grand avant de commencer ses études de médecine. Sa carrière débuta comme externe des Hôpitaux de Paris en 1928 puis comme interne à partir de 1930 où il fut, à seulement vingt ans, le plus jeune interne de France (Netter 1982). Il obtint la médaille d'or de l'internat en 1936 et devint docteur en médecine de la Faculté de médecine de Paris la même année. À la suite de cela il séjourna un an à l'université Columbia à New York, et devint chef de clinique à la Faculté de médecine de Paris après son retour en 1937.
 </t>
         </is>
       </c>
@@ -545,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Première banque de sperme</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est en 1972 qu'il créé avec Michel Jondet la banque de sperme de l'Hôpital Necker, la première en France (Jondet &amp; Netter 1973) Le Pr Georges David créera de son côté une banque du sperme à l'hôpital Bicêtre, situé au sud de Paris. Ces structures mèneront à la création du Centre d'étude et de conservation des œufs et du sperme humains (CECOS) à l'Hôtel-Dieu en 1978. C'est aussi en 1974, avec Jacqueline Kahn-Nathan, qu'il organise le premier congrès mondial de sexologie médicale (Giami &amp; de Colomy 2001). À l'époque où il travaillait à l'Hôpital Lariboisière, Albert Netter créa en 1971 les Journées Albert Netter de gynécologie (Madelenat 2007/Serfaty &amp; Homasson) qui menèrent, en 1992, à fonder la Société Européenne de Gynécologie qui créa en 2005 le Prix Albert et Alice Netter destiné à récompenser les travaux de jeunes chercheurs en gynécologie (SEG).
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut engagé dans l'armée par devancement d'appel en 1930-1931 et servit de nouveau de septembre 1939 à septembre 1940, puis d'août 1944 à mai 1945. C'est donc logiquement, début septembre 1939 aux premiers coups de canon de la Seconde Guerre mondiale, qu'Alice Lambert et Albert Netter se marièrent.
 </t>
         </is>
       </c>
@@ -576,10 +594,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De novembre 1945 à novembre 1946 il fut conseiller médical de la Mission française de la Santé publique aux États-Unis destinée à informer le ministre de la Santé des progrès médicaux réalisés aux États-Unis durant la période 1940-1945. En 1955 il effectua une mission à Montréal où il remplaça le professeur Roméo Boucher à l'Hôpital Saint-Luc.
+Médecin des Hôpitaux de Paris en 1947, il enseigna comme professeur au Collège de médecine des Hôpitaux de Paris à partir de 1954 et fut nommé professeur à la Faculté de médecine de Paris (à titre rétroactif) en 1964. Il fut ensuite chef de service à l'Hôpital Lariboisière, puis à l'Hôtel-Dieu, à l'Hôpital Necker où il enseigna la gynécologie et l'endocrinologie et consulta aussi à l'Hôpital Saint-Louis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Albert_Netter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Première banque de sperme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1972 qu'il créé avec Michel Jondet la banque de sperme de l'Hôpital Necker, la première en France (Jondet &amp; Netter 1973) Le Pr Georges David créera de son côté une banque du sperme à l'hôpital Bicêtre, situé au sud de Paris. Ces structures mèneront à la création du Centre d'étude et de conservation des œufs et du sperme humains (CECOS) à l'Hôtel-Dieu en 1978. C'est aussi en 1974, avec Jacqueline Kahn-Nathan, qu'il organise le premier congrès mondial de sexologie médicale (Giami &amp; de Colomy 2001). À l'époque où il travaillait à l'Hôpital Lariboisière, Albert Netter créa en 1971 les Journées Albert Netter de gynécologie (Madelenat 2007/Serfaty &amp; Homasson) qui menèrent, en 1992, à fonder la Société Européenne de Gynécologie qui créa en 2005 le Prix Albert et Alice Netter destiné à récompenser les travaux de jeunes chercheurs en gynécologie (SEG).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Albert_Netter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils portèrent principalement sur les aménorrhées et leur traitement, l'hyperandrogénie et les métrorragies, le cancer du col utérin, les malformations utérines, la mammographie, l'œstrogénothérapie, la ménopause, la contraception, le traitement de la stérilité. 
 Les premiers travaux d'Albert Netter, effectués sur deux années à l'Institut Pasteur et publiés à partir de 1933, ont tout d'abord porté sur les protéines plasmatiques en rapport avec les états cholériformes du nourrisson (Cathala &amp; Netter 1933). 
@@ -597,62 +688,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Albert_Netter</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Albert_Netter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sociétés et associations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Créateur de la gynécologie médicale qu'il a enseignée à partir de 1948, fondateur de l'Association française pour l'étude de la ménopause (1979), il est président fondateur de la Société européenne de gynécologie (1992). Il est aussi président d'honneur de la Société d'endocrinologie, de la Société de cytologie clinique, de la Société française de gynécologie et de la Société française pour l'étude de la fertilité. Il fut également président de la section parisienne de la Fédération des sociétés de gynécologie et d'obstétrique de France, président d'honneur de la Société d'étude de la stérilité, membre de la Commission d'endocrinologie de l'INSERM et conseiller scientifique de la Fondation de recherche en hormonologie.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Albert_Netter</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Albert_Netter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Officier de la Légion d'honneur
 Docteur honoris causa de l'université de Coimbra (Portugal) en 1983
@@ -663,31 +758,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Albert_Netter</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Albert_Netter</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Principales collaborations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Alice Lambert-Netter, son épouse depuis septembre 1939, sa principale collaboratrice et coauteure pour de très nombreux articles, décorée Chevalier de la Légion d'Honneur des mains de Jean Hamburger.
 Agostinho de Almeida Santos à partir de 1972 dans le domaine des traitements par gonadotropines (Hermier et al. 1972)
@@ -714,31 +811,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Albert_Netter</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Albert_Netter</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Netter</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Présence dans les médias, les lettres et les arts</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Albert Netter fut plusieurs fois l'invité d'émissions et journaux télévisés (26-11-1965 sur la pilule ina.fr, 25-04-1967 "Tel quel" sur l'avortement, 15-05-1977 sur la contraception...).
 Un extrait d'un article du quotidien Le Monde est repris dans le roman Pointe Rouge, de Maurice Attia (2007), p. 245, où Albert Netter s'oppose à un paragraphe de la loi Neuwirth sur la régulation des naissances qui exige un consentement écrit des parents pour permettre l'accès à la pilule aux mineures de moins de 21 ans: "Nous ne voyons dans cette interdiction faite aux mineures ni un progrès moral, ni un bienfait pour l'avenir de la natalité, bien au contraire..."
